--- a/data/trans_bre/P14B_x_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Estudios-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,01; 12,02</t>
+          <t>7,39; 12,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 8,33</t>
+          <t>2,44; 8,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>145,11; 482,62</t>
+          <t>164,88; 486,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,19; 134,88</t>
+          <t>22,49; 134,63</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,39</t>
+          <t>2,06; 4,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,15</t>
+          <t>2,15; 5,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,67; 316,93</t>
+          <t>86,98; 302,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,7; 199,51</t>
+          <t>52,41; 195,04</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,41</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,01</t>
+          <t>-0,94; 2,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,77; —</t>
+          <t>-41,88; 1579,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 152,8</t>
+          <t>-24,24; 146,5</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,81</t>
+          <t>3,78; 5,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,9</t>
+          <t>2,81; 4,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>158,39; 361,36</t>
+          <t>154,95; 351,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,88; 146,15</t>
+          <t>62,63; 144,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14B_x_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 12,44</t>
+          <t>7,21; 12,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>164,88; 486,56</t>
+          <t>155,04; 481,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,38</t>
+          <t>2,05; 4,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>86,98; 302,5</t>
+          <t>82,62; 303,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,62</t>
+          <t>0,01; 2,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,88; 1579,57</t>
+          <t>-43,25; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,85</t>
+          <t>3,72; 5,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>154,95; 351,68</t>
+          <t>155,57; 348,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P14B_x_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 12,51</t>
+          <t>7,01; 12,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 8,48</t>
+          <t>2,43; 8,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>155,04; 481,53</t>
+          <t>145,11; 482,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,49; 134,63</t>
+          <t>24,19; 134,88</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,45</t>
+          <t>1,95; 4,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,1</t>
+          <t>2,18; 5,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,62; 303,17</t>
+          <t>81,67; 316,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,41; 195,04</t>
+          <t>58,7; 199,51</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,65</t>
+          <t>-0,05; 2,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,96</t>
+          <t>-0,88; 3,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,25; —</t>
+          <t>-29,77; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 146,5</t>
+          <t>-25,05; 152,8</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 5,74</t>
+          <t>3,73; 5,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,94</t>
+          <t>2,7; 4,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>155,57; 348,11</t>
+          <t>158,39; 361,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,63; 144,89</t>
+          <t>61,88; 146,15</t>
         </is>
       </c>
     </row>
